--- a/Sorption Experiments/RaGlass_May11_2017/RaGlass_May11_2017.xlsx
+++ b/Sorption Experiments/RaGlass_May11_2017/RaGlass_May11_2017.xlsx
@@ -880,11 +880,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="221536544"/>
-        <c:axId val="221537328"/>
+        <c:axId val="213220352"/>
+        <c:axId val="213218784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="221536544"/>
+        <c:axId val="213220352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -912,12 +912,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221537328"/>
+        <c:crossAx val="213218784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221537328"/>
+        <c:axId val="213218784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,7 +945,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221536544"/>
+        <c:crossAx val="213220352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1180,11 +1180,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="221535760"/>
-        <c:axId val="221540464"/>
+        <c:axId val="213219960"/>
+        <c:axId val="213217216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="221535760"/>
+        <c:axId val="213219960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1212,12 +1212,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221540464"/>
+        <c:crossAx val="213217216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221540464"/>
+        <c:axId val="213217216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,7 +1245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221535760"/>
+        <c:crossAx val="213219960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10288,7 +10288,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B2" sqref="B2:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sorption Experiments/RaGlass_May11_2017/RaGlass_May11_2017.xlsx
+++ b/Sorption Experiments/RaGlass_May11_2017/RaGlass_May11_2017.xlsx
@@ -880,11 +880,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213220352"/>
-        <c:axId val="213218784"/>
+        <c:axId val="196767784"/>
+        <c:axId val="196770920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213220352"/>
+        <c:axId val="196767784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -912,12 +912,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213218784"/>
+        <c:crossAx val="196770920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213218784"/>
+        <c:axId val="196770920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,7 +945,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213220352"/>
+        <c:crossAx val="196767784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1180,11 +1180,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213219960"/>
-        <c:axId val="213217216"/>
+        <c:axId val="196771312"/>
+        <c:axId val="196772488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213219960"/>
+        <c:axId val="196771312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1212,12 +1212,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213217216"/>
+        <c:crossAx val="196772488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213217216"/>
+        <c:axId val="196772488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,7 +1245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213219960"/>
+        <c:crossAx val="196771312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1348,6 +1348,7 @@
       <sheetName val="Scint Cocktail Testing"/>
       <sheetName val="Calibration Data"/>
       <sheetName val="Stock Log"/>
+      <sheetName val="Stock 6 Calc"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1371,6 +1372,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8258,7 +8260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -10288,7 +10290,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
